--- a/biology/Zoologie/Callilepis_eremella/Callilepis_eremella.xlsx
+++ b/biology/Zoologie/Callilepis_eremella/Callilepis_eremella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callilepis eremella est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callilepis eremella est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
-au Canada en Colombie-Britannique[2] ;
-aux États-Unis  au Montana, au Washington, en Oregon, en Californie, en Utah, au Wyoming, au Colorado, au Nouveau-Mexique et en Arizona[2] ;
-au Mexique en Basse-Californie[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
+au Canada en Colombie-Britannique ;
+aux États-Unis  au Montana, au Washington, en Oregon, en Californie, en Utah, au Wyoming, au Colorado, au Nouveau-Mexique et en Arizona ;
+au Mexique en Basse-Californie.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent en moyenne 3,34 mm et les femelles 5,29 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent en moyenne 3,34 mm et les femelles 5,29 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Gertsch, 1928 : Notes on spiders from southeastern Utah. Proceedings of the Biological Society of Washington, vol. 41, p. 175-188.</t>
         </is>
